--- a/model/跨境电子商务进口清单模板.xlsx
+++ b/model/跨境电子商务进口清单模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="145">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -288,230 +288,261 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>匹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3596.595685</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6952.584</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12698.55555</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流企业代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流企业名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>70.123457</t>
+  </si>
+  <si>
+    <t>70.123458</t>
+  </si>
+  <si>
+    <t>70.123459</t>
+  </si>
+  <si>
+    <t>70.123460</t>
+  </si>
+  <si>
+    <t>70.123461</t>
+  </si>
+  <si>
+    <t>70.123462</t>
+  </si>
+  <si>
+    <t>70.123463</t>
+  </si>
+  <si>
+    <t>70.123464</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>物流企业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGISTICSCODE123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGISTICSCODE124</t>
+  </si>
+  <si>
+    <t>LOGISTICSCODE125</t>
+  </si>
+  <si>
+    <t>LOGISTICSCODE126</t>
+  </si>
+  <si>
+    <t>LOGISTICSCODE127</t>
+  </si>
+  <si>
+    <t>LOGISTICSCODE128</t>
+  </si>
+  <si>
+    <t>LOGISTICSCODE129</t>
+  </si>
+  <si>
+    <t>LOGISTICSCODE130</t>
+  </si>
+  <si>
+    <t>LOGISTICSCODE131</t>
+  </si>
+  <si>
+    <t>logistics1234567891</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics1234567892</t>
+  </si>
+  <si>
+    <t>logistics1234567893</t>
+  </si>
+  <si>
+    <t>logistics1234567894</t>
+  </si>
+  <si>
+    <t>logistics1234567895</t>
+  </si>
+  <si>
+    <t>logistics1234567896</t>
+  </si>
+  <si>
+    <t>logistics1234567897</t>
+  </si>
+  <si>
+    <t>logistics1234567898</t>
+  </si>
+  <si>
+    <t>logistics1234567899</t>
+  </si>
+  <si>
+    <t>qingdan1234567891</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingdan1234567894</t>
+  </si>
+  <si>
+    <t>qingdan1234567895</t>
+  </si>
+  <si>
+    <t>qingdan1234567896</t>
+  </si>
+  <si>
+    <t>qingdan1234567897</t>
+  </si>
+  <si>
+    <t>qingdan1234567898</t>
+  </si>
+  <si>
+    <t>qingdan1234567899</t>
+  </si>
+  <si>
+    <t>陕西省西安市雁塔区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报公司名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>某东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改良种用濒危野马01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改良种用濒危野马02</t>
+  </si>
+  <si>
+    <t>改良种用濒危野马03</t>
+  </si>
+  <si>
+    <t>改良种用濒危野马04</t>
+  </si>
+  <si>
+    <t>改良种用濒危野马05</t>
+  </si>
+  <si>
+    <t>改良种用濒危野马06</t>
+  </si>
+  <si>
+    <t>改良种用濒危野马07</t>
+  </si>
+  <si>
+    <t>改良种用濒危野马08</t>
+  </si>
+  <si>
+    <t>改良种用濒危野马09</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>千克</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>克</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingdan1234567892</t>
+  </si>
+  <si>
+    <t>qingdan1234567893</t>
+  </si>
+  <si>
     <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1559.555559</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3596.595685</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6952.584</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12698.55555</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流企业代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流企业名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛重</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>70.123457</t>
-  </si>
-  <si>
-    <t>70.123458</t>
-  </si>
-  <si>
-    <t>70.123459</t>
-  </si>
-  <si>
-    <t>70.123460</t>
-  </si>
-  <si>
-    <t>70.123461</t>
-  </si>
-  <si>
-    <t>70.123462</t>
-  </si>
-  <si>
-    <t>70.123463</t>
-  </si>
-  <si>
-    <t>70.123464</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>物流企业</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGISTICSCODE123</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGISTICSCODE124</t>
-  </si>
-  <si>
-    <t>LOGISTICSCODE125</t>
-  </si>
-  <si>
-    <t>LOGISTICSCODE126</t>
-  </si>
-  <si>
-    <t>LOGISTICSCODE127</t>
-  </si>
-  <si>
-    <t>LOGISTICSCODE128</t>
-  </si>
-  <si>
-    <t>LOGISTICSCODE129</t>
-  </si>
-  <si>
-    <t>LOGISTICSCODE130</t>
-  </si>
-  <si>
-    <t>LOGISTICSCODE131</t>
-  </si>
-  <si>
-    <t>logistics1234567891</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>logistics1234567892</t>
-  </si>
-  <si>
-    <t>logistics1234567893</t>
-  </si>
-  <si>
-    <t>logistics1234567894</t>
-  </si>
-  <si>
-    <t>logistics1234567895</t>
-  </si>
-  <si>
-    <t>logistics1234567896</t>
-  </si>
-  <si>
-    <t>logistics1234567897</t>
-  </si>
-  <si>
-    <t>logistics1234567898</t>
-  </si>
-  <si>
-    <t>logistics1234567899</t>
-  </si>
-  <si>
-    <t>qingdan1234567891</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qingdan1234567892</t>
-  </si>
-  <si>
-    <t>qingdan1234567893</t>
-  </si>
-  <si>
-    <t>qingdan1234567894</t>
-  </si>
-  <si>
-    <t>qingdan1234567895</t>
-  </si>
-  <si>
-    <t>qingdan1234567896</t>
-  </si>
-  <si>
-    <t>qingdan1234567897</t>
-  </si>
-  <si>
-    <t>qingdan1234567898</t>
-  </si>
-  <si>
-    <t>qingdan1234567899</t>
-  </si>
-  <si>
-    <t>陕西省西安市雁塔区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXXL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾大</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报公司名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>某东</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>改良种用濒危野马01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>改良种用濒危野马02</t>
-  </si>
-  <si>
-    <t>改良种用濒危野马03</t>
-  </si>
-  <si>
-    <t>改良种用濒危野马04</t>
-  </si>
-  <si>
-    <t>改良种用濒危野马05</t>
-  </si>
-  <si>
-    <t>改良种用濒危野马06</t>
-  </si>
-  <si>
-    <t>改良种用濒危野马07</t>
-  </si>
-  <si>
-    <t>改良种用濒危野马08</t>
-  </si>
-  <si>
-    <t>改良种用濒危野马09</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装种类</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -995,19 +1026,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="5" width="9" style="13"/>
-    <col min="26" max="26" width="9" style="17"/>
+    <col min="27" max="27" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1029,1098 +1060,1134 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="AB1" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="AL1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="N2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5" t="s">
+      <c r="V2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="Y2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="AE2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="AJ2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="AM2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN2" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5" t="s">
+      <c r="V3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="Y3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="AC3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="AE3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="AJ3" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AL3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM3" s="5"/>
-    </row>
-    <row r="4" spans="1:39" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="AN3" s="5"/>
+    </row>
+    <row r="4" spans="1:40" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="N4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
+      <c r="V4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="Y4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="AE4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AG4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AH4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AI4" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="AJ4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AL4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AN4" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="J5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="N5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5" t="s">
+      <c r="V5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="Y5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA5" s="5"/>
+      <c r="AA5" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="AE5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AI5" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="AJ5" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AL5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="N6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5" t="s">
+      <c r="V6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="Y6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="AA6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB6" s="5"/>
       <c r="AC6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD6" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="AE6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AF6" s="5" t="s">
+      <c r="AG6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG6" s="5" t="s">
+      <c r="AH6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AI6" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="AJ6" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="AL6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="5"/>
-    </row>
-    <row r="7" spans="1:39" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="AN6" s="5"/>
+    </row>
+    <row r="7" spans="1:40" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5" t="s">
+      <c r="V7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="Y7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AA7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="AC7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD7" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="AE7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AG7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AH7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AH7" s="5" t="s">
+      <c r="AI7" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="AI7" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="AJ7" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="AL7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM7" s="5" t="s">
+      <c r="AN7" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" s="6" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5" t="s">
+      <c r="V8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="Y8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AA8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AB8" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="AC8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD8" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="AE8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="AG8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG8" s="5" t="s">
+      <c r="AH8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AH8" s="5" t="s">
+      <c r="AI8" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="AJ8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="AL8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM8" s="5"/>
-    </row>
-    <row r="9" spans="1:39" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="AN8" s="5"/>
+    </row>
+    <row r="9" spans="1:40" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="6" t="s">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5" t="s">
+      <c r="V9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X9" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="Y9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA9" s="5" t="s">
+      <c r="AA9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AB9" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="AC9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD9" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="AE9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AG9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG9" s="5" t="s">
+      <c r="AH9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AH9" s="5" t="s">
+      <c r="AI9" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="AI9" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="AJ9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AL9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM9" s="5"/>
-    </row>
-    <row r="10" spans="1:39" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="AN9" s="5"/>
+    </row>
+    <row r="10" spans="1:40" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="6" t="s">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="R10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5" t="s">
+      <c r="V10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X10" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="Y10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AA10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AB10" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="AC10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="AE10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AG10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AG10" s="5" t="s">
+      <c r="AH10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AH10" s="5" t="s">
+      <c r="AI10" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="AJ10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AL10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AM10" s="5"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN10" s="5"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="C11" s="7"/>
@@ -2138,16 +2205,16 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="6"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="16"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -2160,8 +2227,9 @@
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="C12" s="7"/>
@@ -2187,8 +2255,8 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="16"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -2201,8 +2269,9 @@
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="7"/>
@@ -2228,8 +2297,8 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="16"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -2242,8 +2311,9 @@
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN13" s="7"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="7"/>
@@ -2269,8 +2339,8 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="16"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -2283,8 +2353,9 @@
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN14" s="7"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="7"/>
@@ -2310,8 +2381,8 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="16"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
@@ -2324,8 +2395,9 @@
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="7"/>
@@ -2351,8 +2423,8 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="16"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
@@ -2365,8 +2437,9 @@
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN16" s="7"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="7"/>
@@ -2392,8 +2465,8 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="16"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
@@ -2406,8 +2479,9 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN17" s="7"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="10"/>
       <c r="C18" s="7"/>
@@ -2433,8 +2507,8 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="16"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
@@ -2447,8 +2521,9 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN18" s="7"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
       <c r="C19" s="7"/>
@@ -2474,8 +2549,8 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="16"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
@@ -2488,8 +2563,9 @@
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN19" s="7"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="7"/>
@@ -2515,8 +2591,8 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="16"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
@@ -2529,8 +2605,9 @@
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN20" s="7"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="7"/>
@@ -2556,8 +2633,8 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="16"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
@@ -2570,8 +2647,9 @@
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN21" s="7"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="7"/>
@@ -2597,8 +2675,8 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="16"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
@@ -2611,8 +2689,9 @@
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN22" s="7"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="7"/>
@@ -2638,8 +2717,8 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="16"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
@@ -2652,8 +2731,9 @@
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN23" s="7"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="7"/>
@@ -2679,8 +2759,8 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="16"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
@@ -2693,8 +2773,9 @@
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN24" s="7"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
       <c r="C25" s="7"/>
@@ -2720,8 +2801,8 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="16"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
@@ -2734,8 +2815,9 @@
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN25" s="7"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
       <c r="C26" s="7"/>
@@ -2761,8 +2843,8 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="16"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
@@ -2775,8 +2857,9 @@
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
       <c r="AM26" s="7"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN26" s="7"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="10"/>
       <c r="C27" s="7"/>
@@ -2802,8 +2885,8 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="16"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
@@ -2816,8 +2899,9 @@
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN27" s="7"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="10"/>
       <c r="C28" s="7"/>
@@ -2843,8 +2927,8 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="16"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
@@ -2857,8 +2941,9 @@
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
       <c r="AM28" s="7"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN28" s="7"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="10"/>
       <c r="C29" s="7"/>
@@ -2884,8 +2969,8 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="16"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
@@ -2898,8 +2983,9 @@
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN29" s="7"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="10"/>
       <c r="C30" s="7"/>
@@ -2925,8 +3011,8 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="16"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
@@ -2939,8 +3025,9 @@
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN30" s="7"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="10"/>
       <c r="C31" s="7"/>
@@ -2966,8 +3053,8 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="16"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
@@ -2980,8 +3067,9 @@
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
       <c r="AM31" s="7"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN31" s="7"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="10"/>
       <c r="C32" s="7"/>
@@ -3007,8 +3095,8 @@
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="16"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
@@ -3021,8 +3109,9 @@
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN32" s="7"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="7"/>
@@ -3048,8 +3137,8 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="16"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
@@ -3062,8 +3151,9 @@
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AN33" s="7"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="10"/>
       <c r="C34" s="7"/>
@@ -3089,8 +3179,8 @@
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="16"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
@@ -3103,6 +3193,7 @@
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
